--- a/Controller_PartsList.xlsx
+++ b/Controller_PartsList.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdiro\Desktop\NixieClockRev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B86C88-EF37-4AEF-87DC-7771FDB4CF38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC7D3F0-7A05-4991-A34F-60BE23A07191}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1995" windowWidth="28800" windowHeight="12690" xr2:uid="{9419127E-C365-4B28-B0E7-0B6ADC239E75}"/>
+    <workbookView xWindow="25125" yWindow="5040" windowWidth="26460" windowHeight="13860" xr2:uid="{9419127E-C365-4B28-B0E7-0B6ADC239E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -43,12 +42,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>945-2409-5-ND</t>
-  </si>
-  <si>
-    <t>1276-6455-1-ND</t>
-  </si>
-  <si>
     <t>1276-1286-1-ND</t>
   </si>
   <si>
@@ -133,9 +126,6 @@
     <t>IC2</t>
   </si>
   <si>
-    <t>IC4</t>
-  </si>
-  <si>
     <t>IC5</t>
   </si>
   <si>
@@ -151,12 +141,6 @@
     <t>445-13454-1-ND</t>
   </si>
   <si>
-    <t>R5,R7,R9</t>
-  </si>
-  <si>
-    <t>R4,R6,R8</t>
-  </si>
-  <si>
     <t>RMCF0805FT10K0CT-ND</t>
   </si>
   <si>
@@ -181,10 +165,58 @@
     <t>296-12010-1-ND</t>
   </si>
   <si>
-    <t>B1-3</t>
-  </si>
-  <si>
-    <t>486-3471-ND</t>
+    <t>1276-1096-1-ND</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>R4,R6</t>
+  </si>
+  <si>
+    <t>R5,R7</t>
+  </si>
+  <si>
+    <t>R12,R13,R14</t>
+  </si>
+  <si>
+    <t>RNCF0805DTE10K0CT-ND</t>
+  </si>
+  <si>
+    <t>945-1648-5-ND</t>
+  </si>
+  <si>
+    <t>VR2</t>
+  </si>
+  <si>
+    <t>VR1</t>
+  </si>
+  <si>
+    <t>Q2,Q3</t>
+  </si>
+  <si>
+    <t>S7121-ND</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>C2,C6</t>
+  </si>
+  <si>
+    <t>PTS645SM43SMTR92 LFS</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>AZ1117CH-3.3TRG1DICT-ND</t>
   </si>
 </sst>
 </file>
@@ -570,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BF1A60-FEC9-436F-950B-2374E06DEF01}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,11 +626,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -606,10 +638,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -617,10 +649,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -628,10 +660,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -639,10 +671,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -650,10 +682,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -661,10 +693,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -672,10 +704,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -683,10 +715,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -694,10 +726,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -705,10 +737,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -716,147 +748,258 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
+      <c r="A18" t="s">
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
+      <c r="A19" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Controller_PartsList.xlsx
+++ b/Controller_PartsList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdiro\Desktop\NixieClockRev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdiro\Desktop\NixieTubeClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC7D3F0-7A05-4991-A34F-60BE23A07191}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2C0E8-E939-4DFD-A173-2795DDB788C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25125" yWindow="5040" windowWidth="26460" windowHeight="13860" xr2:uid="{9419127E-C365-4B28-B0E7-0B6ADC239E75}"/>
+    <workbookView xWindow="-14190" yWindow="6375" windowWidth="26460" windowHeight="13860" xr2:uid="{9419127E-C365-4B28-B0E7-0B6ADC239E75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BF1A60-FEC9-436F-950B-2374E06DEF01}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
